--- a/Wulinpy/GenerateXSLXtoCSV/xlsx_input/本地化数据_图鉴.xlsx
+++ b/Wulinpy/GenerateXSLXtoCSV/xlsx_input/本地化数据_图鉴.xlsx
@@ -9,12 +9,25 @@
   <sheets>
     <sheet name="LocData" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029" fullCalcOnLoad="1"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="134">
   <si>
     <t>备注</t>
   </si>
@@ -103,10 +116,10 @@
     <t>IllustratedHandbookTitle_Ending</t>
   </si>
   <si>
-    <t>结局</t>
-  </si>
-  <si>
-    <t>結局</t>
+    <t>插图</t>
+  </si>
+  <si>
+    <t>插圖</t>
   </si>
   <si>
     <t>Ending</t>
@@ -316,7 +329,7 @@
     <t>場景圖鑑</t>
   </si>
   <si>
-    <t>Scene guide</t>
+    <t>Scenes</t>
   </si>
   <si>
     <t>119_name</t>
@@ -328,7 +341,7 @@
     <t>結局圖鑑</t>
   </si>
   <si>
-    <t>Ending guide</t>
+    <t>Endings</t>
   </si>
   <si>
     <t>120_name</t>
@@ -376,7 +389,7 @@
     <t>天真無邪</t>
   </si>
   <si>
-    <t>Innocent</t>
+    <t>Innocent children</t>
   </si>
   <si>
     <t>124_name</t>
@@ -389,6 +402,30 @@
   </si>
   <si>
     <t>Keep oneself pure</t>
+  </si>
+  <si>
+    <t>125_name</t>
+  </si>
+  <si>
+    <t>奇珍异兽</t>
+  </si>
+  <si>
+    <t>奇珍異獸</t>
+  </si>
+  <si>
+    <t>Exotic Beasts</t>
+  </si>
+  <si>
+    <t>126_name</t>
+  </si>
+  <si>
+    <t>心机深沉</t>
+  </si>
+  <si>
+    <t>心機深沉</t>
+  </si>
+  <si>
+    <t>Deeply scheming</t>
   </si>
   <si>
     <t>end</t>
@@ -397,7 +434,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -1041,7 +1078,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="58">
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0"/>
     <xf numFmtId="43" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="1">
       <alignment vertical="center"/>
@@ -1187,7 +1224,6 @@
     <xf numFmtId="0" applyNumberFormat="1" fontId="22" applyFont="1" fillId="33" applyFill="1" borderId="0" applyBorder="1" xfId="48">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" xfId="0"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="2" applyBorder="1" xfId="0"/>
@@ -1529,601 +1565,636 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F33"/>
+  <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="9" customWidth="1" style="51"/>
-    <col min="2" max="2" width="22.25" customWidth="1" style="51"/>
-    <col min="3" max="3" width="34.75" customWidth="1" style="52"/>
-    <col min="4" max="4" width="107.25" customWidth="1" style="52"/>
-    <col min="5" max="5" width="43.1333333333333" customWidth="1" style="52"/>
-    <col min="7" max="7" width="18.3833333333333" customWidth="1" style="53"/>
-    <col min="8" max="8" width="15.75" customWidth="1" style="53"/>
-    <col min="9" max="9" width="17.3833333333333" customWidth="1" style="53"/>
-    <col min="10" max="10" width="15.1333333333333" customWidth="1" style="53"/>
-    <col min="11" max="11" width="14.75" customWidth="1" style="53"/>
-    <col min="12" max="12" width="14.3833333333333" customWidth="1" style="53"/>
-    <col min="13" max="13" width="19.25" customWidth="1" style="53"/>
-    <col min="14" max="14" width="17.8833333333333" customWidth="1" style="53"/>
-    <col min="15" max="16384" width="9" customWidth="1" style="53"/>
+    <col min="1" max="1" width="9" customWidth="1" style="50"/>
+    <col min="2" max="2" width="22.25" customWidth="1" style="50"/>
+    <col min="3" max="3" width="34.75" customWidth="1" style="51"/>
+    <col min="4" max="4" width="107.25" customWidth="1" style="51"/>
+    <col min="5" max="5" width="24.8833333333333" customWidth="1" style="51"/>
+    <col min="6" max="6" width="14.45" customWidth="1" style="49"/>
+    <col min="7" max="7" width="18.3833333333333" customWidth="1" style="52"/>
+    <col min="8" max="8" width="15.75" customWidth="1" style="52"/>
+    <col min="9" max="9" width="17.3833333333333" customWidth="1" style="52"/>
+    <col min="10" max="10" width="15.1333333333333" customWidth="1" style="52"/>
+    <col min="11" max="11" width="14.75" customWidth="1" style="52"/>
+    <col min="12" max="12" width="14.3833333333333" customWidth="1" style="52"/>
+    <col min="13" max="13" width="19.25" customWidth="1" style="52"/>
+    <col min="14" max="14" width="17.8833333333333" customWidth="1" style="52"/>
+    <col min="15" max="16384" width="9" customWidth="1" style="52"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="55" t="s">
+      <c r="B1" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="55" t="s">
+      <c r="C1" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="52" t="s">
+      <c r="D1" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="56" t="s">
+      <c r="E1" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="50" t="s">
+      <c r="F1" s="49" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="54"/>
-      <c r="B2" s="55" t="s">
+      <c r="A2" s="53"/>
+      <c r="B2" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="55" t="s">
+      <c r="C2" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="52" t="s">
+      <c r="D2" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="56" t="s">
+      <c r="E2" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="50" t="s">
+      <c r="F2" s="49" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="54"/>
-      <c r="B3" s="55" t="s">
+      <c r="A3" s="53"/>
+      <c r="B3" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="55" t="s">
+      <c r="C3" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="52" t="s">
+      <c r="D3" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="56" t="s">
+      <c r="E3" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="50" t="s">
+      <c r="F3" s="49" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="54"/>
-      <c r="B4" s="55" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="55" t="s">
+      <c r="A4" s="53"/>
+      <c r="B4" s="54" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="52" t="s">
+      <c r="D4" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="56" t="s">
+      <c r="E4" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="50" t="s">
+      <c r="F4" s="49" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="54"/>
-      <c r="B5" s="54" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="55" t="s">
+      <c r="A5" s="53"/>
+      <c r="B5" s="53" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="52" t="s">
+      <c r="D5" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="56" t="s">
+      <c r="E5" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="50" t="s">
+      <c r="F5" s="49" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="54"/>
-      <c r="B6" s="54" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="55" t="s">
+      <c r="A6" s="53"/>
+      <c r="B6" s="53" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="52" t="s">
+      <c r="D6" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="56" t="s">
+      <c r="E6" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="50" t="s">
+      <c r="F6" s="49" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="54"/>
-      <c r="B7" s="54" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="55" t="s">
+      <c r="A7" s="53"/>
+      <c r="B7" s="53" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="54" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="52" t="s">
+      <c r="D7" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="E7" s="56" t="s">
+      <c r="E7" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F7" s="50" t="s">
+      <c r="F7" s="49" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="54"/>
-      <c r="B8" s="54" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="55" t="s">
+      <c r="A8" s="53"/>
+      <c r="B8" s="53" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="52" t="s">
+      <c r="D8" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="E8" s="56" t="s">
+      <c r="E8" s="55" t="s">
         <v>30</v>
       </c>
-      <c r="F8" s="50" t="s">
+      <c r="F8" s="49" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="9">
-      <c r="B9" s="54" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="57" t="s">
+      <c r="B9" s="53" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="56" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="57" t="s">
+      <c r="D9" s="56" t="s">
         <v>33</v>
       </c>
-      <c r="E9" s="52" t="s">
+      <c r="E9" s="51" t="s">
         <v>34</v>
       </c>
-      <c r="F9" s="50" t="s">
+      <c r="F9" s="49" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="10">
-      <c r="B10" s="54" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="57" t="s">
+      <c r="B10" s="53" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="D10" s="57" t="s">
+      <c r="D10" s="56" t="s">
         <v>37</v>
       </c>
-      <c r="E10" s="52" t="s">
+      <c r="E10" s="51" t="s">
         <v>37</v>
       </c>
-      <c r="F10" s="50" t="s">
+      <c r="F10" s="49" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="11">
-      <c r="B11" s="54" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="57" t="s">
+      <c r="B11" s="53" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="56" t="s">
         <v>39</v>
       </c>
-      <c r="D11" s="57" t="s">
+      <c r="D11" s="56" t="s">
         <v>40</v>
       </c>
-      <c r="E11" s="52" t="s">
+      <c r="E11" s="51" t="s">
         <v>41</v>
       </c>
-      <c r="F11" s="50" t="s">
+      <c r="F11" s="49" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="12">
-      <c r="B12" s="54" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" s="57" t="s">
+      <c r="B12" s="53" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="56" t="s">
         <v>43</v>
       </c>
-      <c r="D12" s="57" t="s">
+      <c r="D12" s="56" t="s">
         <v>44</v>
       </c>
-      <c r="E12" s="52" t="s">
+      <c r="E12" s="51" t="s">
         <v>45</v>
       </c>
-      <c r="F12" s="50" t="s">
+      <c r="F12" s="49" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="13">
-      <c r="B13" s="54" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" s="57" t="s">
+      <c r="B13" s="53" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="56" t="s">
         <v>47</v>
       </c>
-      <c r="D13" s="57" t="s">
+      <c r="D13" s="56" t="s">
         <v>48</v>
       </c>
-      <c r="E13" s="52" t="s">
+      <c r="E13" s="51" t="s">
         <v>49</v>
       </c>
-      <c r="F13" s="50" t="s">
+      <c r="F13" s="49" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="14">
-      <c r="B14" s="54" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" s="57" t="s">
+      <c r="B14" s="53" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="56" t="s">
         <v>51</v>
       </c>
-      <c r="D14" s="57" t="s">
+      <c r="D14" s="56" t="s">
         <v>52</v>
       </c>
-      <c r="E14" s="52" t="s">
+      <c r="E14" s="51" t="s">
         <v>53</v>
       </c>
-      <c r="F14" s="50" t="s">
+      <c r="F14" s="49" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="15">
-      <c r="B15" s="54" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" s="57" t="s">
+      <c r="B15" s="53" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="56" t="s">
         <v>55</v>
       </c>
-      <c r="D15" s="57" t="s">
+      <c r="D15" s="56" t="s">
         <v>56</v>
       </c>
-      <c r="E15" s="52" t="s">
+      <c r="E15" s="51" t="s">
         <v>56</v>
       </c>
-      <c r="F15" s="50" t="s">
+      <c r="F15" s="49" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="16">
-      <c r="B16" s="54" t="s">
-        <v>13</v>
-      </c>
-      <c r="C16" s="57" t="s">
+      <c r="B16" s="53" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="56" t="s">
         <v>58</v>
       </c>
-      <c r="D16" s="57" t="s">
+      <c r="D16" s="56" t="s">
         <v>59</v>
       </c>
-      <c r="E16" s="52" t="s">
+      <c r="E16" s="51" t="s">
         <v>60</v>
       </c>
-      <c r="F16" s="50" t="s">
+      <c r="F16" s="49" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="17">
-      <c r="B17" s="54" t="s">
-        <v>13</v>
-      </c>
-      <c r="C17" s="57" t="s">
+      <c r="B17" s="53" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="56" t="s">
         <v>62</v>
       </c>
-      <c r="D17" s="57" t="s">
+      <c r="D17" s="56" t="s">
         <v>63</v>
       </c>
-      <c r="E17" s="52" t="s">
+      <c r="E17" s="51" t="s">
         <v>64</v>
       </c>
-      <c r="F17" s="50" t="s">
+      <c r="F17" s="49" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="18">
-      <c r="B18" s="54" t="s">
-        <v>13</v>
-      </c>
-      <c r="C18" s="57" t="s">
+      <c r="B18" s="53" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" s="56" t="s">
         <v>66</v>
       </c>
-      <c r="D18" s="57" t="s">
+      <c r="D18" s="56" t="s">
         <v>67</v>
       </c>
-      <c r="E18" s="52" t="s">
+      <c r="E18" s="51" t="s">
         <v>68</v>
       </c>
-      <c r="F18" s="50" t="s">
+      <c r="F18" s="49" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="19">
-      <c r="B19" s="54" t="s">
-        <v>13</v>
-      </c>
-      <c r="C19" s="57" t="s">
+      <c r="B19" s="53" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="56" t="s">
         <v>70</v>
       </c>
-      <c r="D19" s="57" t="s">
+      <c r="D19" s="56" t="s">
         <v>71</v>
       </c>
-      <c r="E19" s="52" t="s">
+      <c r="E19" s="51" t="s">
         <v>72</v>
       </c>
-      <c r="F19" s="50" t="s">
+      <c r="F19" s="49" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="20">
-      <c r="B20" s="54" t="s">
-        <v>13</v>
-      </c>
-      <c r="C20" s="57" t="s">
+      <c r="B20" s="53" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" s="56" t="s">
         <v>74</v>
       </c>
-      <c r="D20" s="57" t="s">
+      <c r="D20" s="56" t="s">
         <v>75</v>
       </c>
-      <c r="E20" s="52" t="s">
+      <c r="E20" s="51" t="s">
         <v>76</v>
       </c>
-      <c r="F20" s="50" t="s">
+      <c r="F20" s="49" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="21">
-      <c r="B21" s="54" t="s">
-        <v>13</v>
-      </c>
-      <c r="C21" s="57" t="s">
+      <c r="B21" s="53" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" s="56" t="s">
         <v>78</v>
       </c>
-      <c r="D21" s="57" t="s">
+      <c r="D21" s="56" t="s">
         <v>79</v>
       </c>
-      <c r="E21" s="52" t="s">
+      <c r="E21" s="51" t="s">
         <v>80</v>
       </c>
-      <c r="F21" s="50" t="s">
+      <c r="F21" s="49" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="22">
-      <c r="B22" s="54" t="s">
-        <v>13</v>
-      </c>
-      <c r="C22" s="57" t="s">
+      <c r="B22" s="53" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22" s="56" t="s">
         <v>82</v>
       </c>
-      <c r="D22" s="57" t="s">
+      <c r="D22" s="56" t="s">
         <v>83</v>
       </c>
-      <c r="E22" s="52" t="s">
+      <c r="E22" s="51" t="s">
         <v>83</v>
       </c>
-      <c r="F22" s="50" t="s">
+      <c r="F22" s="49" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="23">
-      <c r="B23" s="54" t="s">
-        <v>13</v>
-      </c>
-      <c r="C23" s="57" t="s">
+      <c r="B23" s="53" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" s="56" t="s">
         <v>85</v>
       </c>
-      <c r="D23" s="57" t="s">
+      <c r="D23" s="56" t="s">
         <v>86</v>
       </c>
-      <c r="E23" s="52" t="s">
+      <c r="E23" s="51" t="s">
         <v>87</v>
       </c>
-      <c r="F23" s="50" t="s">
+      <c r="F23" s="49" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="24">
-      <c r="B24" s="54" t="s">
-        <v>13</v>
-      </c>
-      <c r="C24" s="57" t="s">
+      <c r="B24" s="53" t="s">
+        <v>13</v>
+      </c>
+      <c r="C24" s="56" t="s">
         <v>89</v>
       </c>
-      <c r="D24" s="57" t="s">
+      <c r="D24" s="56" t="s">
         <v>90</v>
       </c>
-      <c r="E24" s="52" t="s">
+      <c r="E24" s="51" t="s">
         <v>91</v>
       </c>
-      <c r="F24" s="50" t="s">
+      <c r="F24" s="49" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="25">
-      <c r="B25" s="54" t="s">
-        <v>13</v>
-      </c>
-      <c r="C25" s="57" t="s">
+      <c r="B25" s="53" t="s">
+        <v>13</v>
+      </c>
+      <c r="C25" s="56" t="s">
         <v>93</v>
       </c>
-      <c r="D25" s="57" t="s">
+      <c r="D25" s="56" t="s">
         <v>94</v>
       </c>
-      <c r="E25" s="52" t="s">
+      <c r="E25" s="51" t="s">
         <v>95</v>
       </c>
-      <c r="F25" s="50" t="s">
+      <c r="F25" s="49" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="26">
-      <c r="B26" s="54" t="s">
-        <v>13</v>
-      </c>
-      <c r="C26" s="57" t="s">
+      <c r="B26" s="53" t="s">
+        <v>13</v>
+      </c>
+      <c r="C26" s="56" t="s">
         <v>97</v>
       </c>
-      <c r="D26" s="57" t="s">
+      <c r="D26" s="56" t="s">
         <v>98</v>
       </c>
-      <c r="E26" s="52" t="s">
+      <c r="E26" s="51" t="s">
         <v>99</v>
       </c>
-      <c r="F26" s="50" t="s">
+      <c r="F26" s="49" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="27">
-      <c r="B27" s="54" t="s">
-        <v>13</v>
-      </c>
-      <c r="C27" s="57" t="s">
+      <c r="B27" s="53" t="s">
+        <v>13</v>
+      </c>
+      <c r="C27" s="56" t="s">
         <v>101</v>
       </c>
-      <c r="D27" s="57" t="s">
+      <c r="D27" s="56" t="s">
         <v>102</v>
       </c>
-      <c r="E27" s="52" t="s">
+      <c r="E27" s="51" t="s">
         <v>103</v>
       </c>
-      <c r="F27" s="50" t="s">
+      <c r="F27" s="49" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="28">
-      <c r="B28" s="54" t="s">
-        <v>13</v>
-      </c>
-      <c r="C28" s="57" t="s">
+      <c r="B28" s="53" t="s">
+        <v>13</v>
+      </c>
+      <c r="C28" s="56" t="s">
         <v>105</v>
       </c>
-      <c r="D28" s="58" t="s">
+      <c r="D28" s="57" t="s">
         <v>106</v>
       </c>
-      <c r="E28" s="52" t="s">
+      <c r="E28" s="51" t="s">
         <v>107</v>
       </c>
-      <c r="F28" s="50" t="s">
+      <c r="F28" s="49" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="29">
-      <c r="B29" s="54" t="s">
-        <v>13</v>
-      </c>
-      <c r="C29" s="58" t="s">
+      <c r="B29" s="53" t="s">
+        <v>13</v>
+      </c>
+      <c r="C29" s="57" t="s">
         <v>109</v>
       </c>
-      <c r="D29" s="58" t="s">
+      <c r="D29" s="57" t="s">
         <v>110</v>
       </c>
-      <c r="E29" s="52" t="s">
+      <c r="E29" s="51" t="s">
         <v>111</v>
       </c>
-      <c r="F29" s="50" t="s">
+      <c r="F29" s="49" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="30">
-      <c r="B30" s="54" t="s">
-        <v>13</v>
-      </c>
-      <c r="C30" s="58" t="s">
+      <c r="B30" s="53" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="57" t="s">
         <v>113</v>
       </c>
-      <c r="D30" s="58" t="s">
+      <c r="D30" s="57" t="s">
         <v>114</v>
       </c>
-      <c r="E30" s="52" t="s">
+      <c r="E30" s="51" t="s">
         <v>115</v>
       </c>
-      <c r="F30" s="50" t="s">
+      <c r="F30" s="49" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="31">
-      <c r="B31" s="54" t="s">
-        <v>13</v>
-      </c>
-      <c r="C31" s="58" t="s">
+      <c r="B31" s="53" t="s">
+        <v>13</v>
+      </c>
+      <c r="C31" s="57" t="s">
         <v>117</v>
       </c>
-      <c r="D31" s="58" t="s">
+      <c r="D31" s="57" t="s">
         <v>118</v>
       </c>
-      <c r="E31" s="52" t="s">
+      <c r="E31" s="51" t="s">
         <v>119</v>
       </c>
-      <c r="F31" s="50" t="s">
+      <c r="F31" s="49" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="32">
-      <c r="B32" s="54" t="s">
-        <v>13</v>
-      </c>
-      <c r="C32" s="58" t="s">
+      <c r="B32" s="53" t="s">
+        <v>13</v>
+      </c>
+      <c r="C32" s="57" t="s">
         <v>121</v>
       </c>
-      <c r="D32" s="58" t="s">
+      <c r="D32" s="57" t="s">
         <v>122</v>
       </c>
-      <c r="E32" s="52" t="s">
+      <c r="E32" s="51" t="s">
         <v>123</v>
       </c>
-      <c r="F32" s="50" t="s">
+      <c r="F32" s="49" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="51" t="s">
+      <c r="B33" s="53" t="s">
+        <v>13</v>
+      </c>
+      <c r="C33" s="57" t="s">
         <v>125</v>
       </c>
-      <c r="C33" s="58"/>
+      <c r="D33" s="57" t="s">
+        <v>126</v>
+      </c>
+      <c r="E33" s="51" t="s">
+        <v>127</v>
+      </c>
+      <c r="F33" s="49" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="B34" s="53" t="s">
+        <v>13</v>
+      </c>
+      <c r="C34" s="57" t="s">
+        <v>129</v>
+      </c>
+      <c r="D34" s="57" t="s">
+        <v>130</v>
+      </c>
+      <c r="E34" s="51" t="s">
+        <v>131</v>
+      </c>
+      <c r="F34" s="49" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="50" t="s">
+        <v>133</v>
+      </c>
+      <c r="C35" s="57"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C9:C33">
+  <conditionalFormatting sqref="C9:C35">
     <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D9:D32">
+  <conditionalFormatting sqref="D9:D34">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C1:C8 C34:C1048576">
+  <conditionalFormatting sqref="C1:C8 C36:C1048576">
     <cfRule type="duplicateValues" dxfId="0" priority="184"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D1:E8 E15:E32 D33:E1048576">
+  <conditionalFormatting sqref="D1:E8 E15:E34 D35:E1048576">
     <cfRule type="duplicateValues" dxfId="0" priority="185"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
